--- a/results/Неман-Мосты/group-0/Неман-Мосты-гр0-k2.xlsx
+++ b/results/Неман-Мосты/group-0/Неман-Мосты-гр0-k2.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\pkogo\results\Неман-Мосты\group-0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruslan\projects\pkogo\results\Неман-Мосты\group-0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="4920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Неман-Мосты-гр0" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -689,9 +689,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -724,9 +724,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -986,7 +986,7 @@
         <v>0.70411567126225205</v>
       </c>
       <c r="E4">
-        <v>0.71008529169594004</v>
+        <v>0.71008529169593904</v>
       </c>
       <c r="F4">
         <v>75.675675675675606</v>
@@ -1003,10 +1003,10 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>0.71822171085659003</v>
+        <v>0.71822171085658904</v>
       </c>
       <c r="E5">
-        <v>0.69581432441006197</v>
+        <v>0.69581432441006297</v>
       </c>
       <c r="F5">
         <v>72.972972972972897</v>
@@ -1023,7 +1023,7 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>0.78258206793087204</v>
+        <v>0.78258206793087304</v>
       </c>
       <c r="E6">
         <v>0.62254743349646702</v>
